--- a/scalpel/typeinfer/evaluation/evaluation_outputs/docker__compose.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/docker__compose.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>{'num', 'empty'}</t>
+          <t>{'empty', 'num'}</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>num</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Tuple[None]'}</t>
+          <t>{'Tuple[None]', 'any'}</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>Tuple[None]</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Tuple[None]'}</t>
+          <t>{'Tuple[None]', 'any'}</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>Tuple[None]</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>{'num', 'empty'}</t>
+          <t>{'empty', 'num'}</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>num</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
@@ -7174,14 +7174,28 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr"/>
       <c r="B211" s="2" t="inlineStr"/>
-      <c r="C211" s="2" t="inlineStr"/>
-      <c r="D211" s="2" t="inlineStr"/>
-      <c r="E211" s="2" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>511.76</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr"/>
+      <c r="F211" s="2" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr"/>
+      <c r="B212" s="2" t="inlineStr"/>
+      <c r="C212" s="2" t="inlineStr"/>
+      <c r="D212" s="2" t="inlineStr"/>
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F211" s="2" t="n">
+      <c r="F212" s="2" t="n">
         <v>52.94</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/docker__compose.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/docker__compose.xlsx
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'num'}</t>
+          <t>{'num', 'empty'}</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>num</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'any'}</t>
+          <t>{'any', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>any</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'any'}</t>
+          <t>{'any', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>any</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'num'}</t>
+          <t>{'num', 'empty'}</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>num</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
@@ -7174,16 +7174,16 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr"/>
       <c r="B211" s="2" t="inlineStr"/>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr"/>
+      <c r="D211" s="2" t="inlineStr"/>
+      <c r="E211" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>511.76</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr"/>
-      <c r="F211" s="2" t="inlineStr"/>
+      <c r="F211" s="2" t="n">
+        <v>83.65000000000001</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr"/>
@@ -7192,7 +7192,7 @@
       <c r="D212" s="2" t="inlineStr"/>
       <c r="E212" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F212" s="2" t="n">
